--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3227,28 +3227,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.7955913804144</v>
+        <v>134.124384848728</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.6494631480495</v>
+        <v>183.5149005001969</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.2260757879989</v>
+        <v>166.0004959612901</v>
       </c>
       <c r="AD2" t="n">
-        <v>102795.5913804143</v>
+        <v>134124.384848728</v>
       </c>
       <c r="AE2" t="n">
-        <v>140649.4631480495</v>
+        <v>183514.9005001968</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.098538557197762e-06</v>
+        <v>5.238233168654933e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.536458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>127226.0757879989</v>
+        <v>166000.4959612901</v>
       </c>
     </row>
     <row r="3">
@@ -3333,28 +3333,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>85.05083230975133</v>
+        <v>116.2942849234934</v>
       </c>
       <c r="AB3" t="n">
-        <v>116.3703009440607</v>
+        <v>159.1189711740104</v>
       </c>
       <c r="AC3" t="n">
-        <v>105.2640827487328</v>
+        <v>143.9328798900853</v>
       </c>
       <c r="AD3" t="n">
-        <v>85050.83230975133</v>
+        <v>116294.2849234934</v>
       </c>
       <c r="AE3" t="n">
-        <v>116370.3009440607</v>
+        <v>159118.9711740104</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.671969394081763e-06</v>
+        <v>6.207646449867047e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.520833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>105264.0827487328</v>
+        <v>143932.8798900853</v>
       </c>
     </row>
     <row r="4">
@@ -3439,28 +3439,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>82.61277185293257</v>
+        <v>103.441829770645</v>
       </c>
       <c r="AB4" t="n">
-        <v>113.0344390674067</v>
+        <v>141.5336750235883</v>
       </c>
       <c r="AC4" t="n">
-        <v>102.2465908476742</v>
+        <v>128.0258997231357</v>
       </c>
       <c r="AD4" t="n">
-        <v>82612.77185293256</v>
+        <v>103441.829770645</v>
       </c>
       <c r="AE4" t="n">
-        <v>113034.4390674067</v>
+        <v>141533.6750235883</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.904894306413975e-06</v>
+        <v>6.601417571013937e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.190972222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>102246.5908476742</v>
+        <v>128025.8997231357</v>
       </c>
     </row>
     <row r="5">
@@ -3545,28 +3545,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>81.55358959810977</v>
+        <v>102.3826475158222</v>
       </c>
       <c r="AB5" t="n">
-        <v>111.5852191785357</v>
+        <v>140.0844551347172</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.9356824710036</v>
+        <v>126.7149913464652</v>
       </c>
       <c r="AD5" t="n">
-        <v>81553.58959810977</v>
+        <v>102382.6475158222</v>
       </c>
       <c r="AE5" t="n">
-        <v>111585.2191785357</v>
+        <v>140084.4551347173</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.014599395898031e-06</v>
+        <v>6.786879467936516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>100935.6824710036</v>
+        <v>126714.9913464652</v>
       </c>
     </row>
     <row r="6">
@@ -3651,28 +3651,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>70.46636354903472</v>
+        <v>101.6244753082052</v>
       </c>
       <c r="AB6" t="n">
-        <v>96.41518736430692</v>
+        <v>139.047090472059</v>
       </c>
       <c r="AC6" t="n">
-        <v>87.21345720184661</v>
+        <v>125.7766313112602</v>
       </c>
       <c r="AD6" t="n">
-        <v>70466.36354903472</v>
+        <v>101624.4753082052</v>
       </c>
       <c r="AE6" t="n">
-        <v>96415.18736430691</v>
+        <v>139047.090472059</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.06055882593933e-06</v>
+        <v>6.864576164753654e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.991319444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>87213.45720184661</v>
+        <v>125776.6313112603</v>
       </c>
     </row>
     <row r="7">
@@ -3757,28 +3757,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>69.92812398066033</v>
+        <v>101.0862357398308</v>
       </c>
       <c r="AB7" t="n">
-        <v>95.67874424140355</v>
+        <v>138.3106473491557</v>
       </c>
       <c r="AC7" t="n">
-        <v>86.5472991769885</v>
+        <v>125.1104732864021</v>
       </c>
       <c r="AD7" t="n">
-        <v>69928.12398066033</v>
+        <v>101086.2357398308</v>
       </c>
       <c r="AE7" t="n">
-        <v>95678.74424140355</v>
+        <v>138310.6473491557</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.097998605414314e-06</v>
+        <v>6.927869969575741e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>86547.2991769885</v>
+        <v>125110.4732864021</v>
       </c>
     </row>
     <row r="8">
@@ -3863,28 +3863,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>69.41720678801619</v>
+        <v>100.5753185471866</v>
       </c>
       <c r="AB8" t="n">
-        <v>94.97968479835247</v>
+        <v>137.6115879061046</v>
       </c>
       <c r="AC8" t="n">
-        <v>85.91495698604589</v>
+        <v>124.4781310954595</v>
       </c>
       <c r="AD8" t="n">
-        <v>69417.20678801619</v>
+        <v>100575.3185471866</v>
       </c>
       <c r="AE8" t="n">
-        <v>94979.68479835246</v>
+        <v>137611.5879061046</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.139779905451859e-06</v>
+        <v>6.998503330318596e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.895833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>85914.95698604589</v>
+        <v>124478.1310954595</v>
       </c>
     </row>
     <row r="9">
@@ -3969,28 +3969,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>68.44181566360344</v>
+        <v>99.59992742277387</v>
       </c>
       <c r="AB9" t="n">
-        <v>93.64511163071217</v>
+        <v>136.2770147384643</v>
       </c>
       <c r="AC9" t="n">
-        <v>84.70775360843957</v>
+        <v>123.2709277178532</v>
       </c>
       <c r="AD9" t="n">
-        <v>68441.81566360344</v>
+        <v>99599.92742277388</v>
       </c>
       <c r="AE9" t="n">
-        <v>93645.11163071217</v>
+        <v>136277.0147384643</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.194959231311499e-06</v>
+        <v>7.091786718472845e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.826388888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>84707.75360843957</v>
+        <v>123270.9277178532</v>
       </c>
     </row>
     <row r="10">
@@ -4075,28 +4075,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>68.40739201644404</v>
+        <v>99.56550377561449</v>
       </c>
       <c r="AB10" t="n">
-        <v>93.59801167800458</v>
+        <v>136.2299147857567</v>
       </c>
       <c r="AC10" t="n">
-        <v>84.66514880911318</v>
+        <v>123.2283229185268</v>
       </c>
       <c r="AD10" t="n">
-        <v>68407.39201644404</v>
+        <v>99565.50377561449</v>
       </c>
       <c r="AE10" t="n">
-        <v>93598.01167800458</v>
+        <v>136229.9147857567</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.189123854211283e-06</v>
+        <v>7.081921723955686e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH10" t="n">
-        <v>84665.14880911318</v>
+        <v>123228.3229185268</v>
       </c>
     </row>
     <row r="11">
@@ -4181,28 +4181,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>68.35015157959444</v>
+        <v>99.50826333876488</v>
       </c>
       <c r="AB11" t="n">
-        <v>93.51969278703714</v>
+        <v>136.1515958947893</v>
       </c>
       <c r="AC11" t="n">
-        <v>84.59430456317838</v>
+        <v>123.157478672592</v>
       </c>
       <c r="AD11" t="n">
-        <v>68350.15157959444</v>
+        <v>99508.26333876488</v>
       </c>
       <c r="AE11" t="n">
-        <v>93519.69278703714</v>
+        <v>136151.5958947893</v>
       </c>
       <c r="AF11" t="n">
-        <v>4.190781101307745e-06</v>
+        <v>7.084723382398559e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>84594.30456317839</v>
+        <v>123157.478672592</v>
       </c>
     </row>
   </sheetData>
@@ -4478,28 +4478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>84.25479373299348</v>
+        <v>114.5264972645735</v>
       </c>
       <c r="AB2" t="n">
-        <v>115.2811258445977</v>
+        <v>156.7002061097901</v>
       </c>
       <c r="AC2" t="n">
-        <v>104.2788569920954</v>
+        <v>141.7449583688353</v>
       </c>
       <c r="AD2" t="n">
-        <v>84254.79373299348</v>
+        <v>114526.4972645735</v>
       </c>
       <c r="AE2" t="n">
-        <v>115281.1258445977</v>
+        <v>156700.2061097901</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.532337907159618e-06</v>
+        <v>6.117271023010681e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>104278.8569920954</v>
+        <v>141744.9583688353</v>
       </c>
     </row>
     <row r="3">
@@ -4584,28 +4584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.09291455463165</v>
+        <v>99.27413975090268</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.2184150267293</v>
+        <v>135.8312576730726</v>
       </c>
       <c r="AC3" t="n">
-        <v>97.89020138210523</v>
+        <v>122.8677130811584</v>
       </c>
       <c r="AD3" t="n">
-        <v>79092.91455463164</v>
+        <v>99274.13975090267</v>
       </c>
       <c r="AE3" t="n">
-        <v>108218.4150267293</v>
+        <v>135831.2576730726</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.070007218235873e-06</v>
+        <v>7.048401900932169e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.147569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>97890.20138210524</v>
+        <v>122867.7130811584</v>
       </c>
     </row>
     <row r="4">
@@ -4690,28 +4690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>67.24719965965211</v>
+        <v>97.43356233666049</v>
       </c>
       <c r="AB4" t="n">
-        <v>92.01058531136827</v>
+        <v>133.3128984543631</v>
       </c>
       <c r="AC4" t="n">
-        <v>83.22922418694124</v>
+        <v>120.5897025317423</v>
       </c>
       <c r="AD4" t="n">
-        <v>67247.19965965211</v>
+        <v>97433.56233666049</v>
       </c>
       <c r="AE4" t="n">
-        <v>92010.58531136827</v>
+        <v>133312.8984543631</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.265738454396296e-06</v>
+        <v>7.387367495598341e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.913194444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>83229.22418694124</v>
+        <v>120589.7025317423</v>
       </c>
     </row>
     <row r="5">
@@ -4796,28 +4796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>66.19425158534601</v>
+        <v>96.38061426235438</v>
       </c>
       <c r="AB5" t="n">
-        <v>90.5698953033128</v>
+        <v>131.8722084463076</v>
       </c>
       <c r="AC5" t="n">
-        <v>81.92603161123301</v>
+        <v>119.2865099560341</v>
       </c>
       <c r="AD5" t="n">
-        <v>66194.25158534601</v>
+        <v>96380.61426235439</v>
       </c>
       <c r="AE5" t="n">
-        <v>90569.89530331281</v>
+        <v>131872.2084463076</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.38429759201629e-06</v>
+        <v>7.592687143983596e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>81926.03161123302</v>
+        <v>119286.5099560341</v>
       </c>
     </row>
     <row r="6">
@@ -4902,28 +4902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>65.57212133791373</v>
+        <v>95.7584840149221</v>
       </c>
       <c r="AB6" t="n">
-        <v>89.71866925232695</v>
+        <v>131.0209823953217</v>
       </c>
       <c r="AC6" t="n">
-        <v>81.1560453798497</v>
+        <v>118.5165237246508</v>
       </c>
       <c r="AD6" t="n">
-        <v>65572.12133791373</v>
+        <v>95758.4840149221</v>
       </c>
       <c r="AE6" t="n">
-        <v>89718.66925232694</v>
+        <v>131020.9823953217</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.429861969346011e-06</v>
+        <v>7.671595122904773e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.730902777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>81156.0453798497</v>
+        <v>118516.5237246508</v>
       </c>
     </row>
     <row r="7">
@@ -5008,28 +5008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>65.01899904687339</v>
+        <v>95.20536172388177</v>
       </c>
       <c r="AB7" t="n">
-        <v>88.96186293169268</v>
+        <v>130.2641760746874</v>
       </c>
       <c r="AC7" t="n">
-        <v>80.47146759227218</v>
+        <v>117.8319459370733</v>
       </c>
       <c r="AD7" t="n">
-        <v>65018.9990468734</v>
+        <v>95205.36172388177</v>
       </c>
       <c r="AE7" t="n">
-        <v>88961.86293169268</v>
+        <v>130264.1760746874</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.468109968121993e-06</v>
+        <v>7.737832663239244e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH7" t="n">
-        <v>80471.46759227218</v>
+        <v>117831.9459370733</v>
       </c>
     </row>
     <row r="8">
@@ -5114,28 +5114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>64.33065421190204</v>
+        <v>94.5170168889104</v>
       </c>
       <c r="AB8" t="n">
-        <v>88.02003916085447</v>
+        <v>129.3223523038492</v>
       </c>
       <c r="AC8" t="n">
-        <v>79.61953016026449</v>
+        <v>116.9800085050656</v>
       </c>
       <c r="AD8" t="n">
-        <v>64330.65421190205</v>
+        <v>94517.01688891041</v>
       </c>
       <c r="AE8" t="n">
-        <v>88020.03916085446</v>
+        <v>129322.3523038492</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.514060688873694e-06</v>
+        <v>7.817409708224405e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>79619.53016026449</v>
+        <v>116980.0085050656</v>
       </c>
     </row>
   </sheetData>
@@ -5411,28 +5411,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>57.32352148765014</v>
+        <v>84.58427747122425</v>
       </c>
       <c r="AB2" t="n">
-        <v>78.43257103465955</v>
+        <v>115.7319400310414</v>
       </c>
       <c r="AC2" t="n">
-        <v>70.94707653593454</v>
+        <v>104.6866461053068</v>
       </c>
       <c r="AD2" t="n">
-        <v>57323.52148765014</v>
+        <v>84584.27747122425</v>
       </c>
       <c r="AE2" t="n">
-        <v>78432.57103465954</v>
+        <v>115731.9400310414</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.011787662901698e-06</v>
+        <v>9.483380743391615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>70947.07653593454</v>
+        <v>104686.6461053068</v>
       </c>
     </row>
     <row r="3">
@@ -5517,28 +5517,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>55.60023544253401</v>
+        <v>73.7457153219439</v>
       </c>
       <c r="AB3" t="n">
-        <v>76.07469504171814</v>
+        <v>100.9021411347886</v>
       </c>
       <c r="AC3" t="n">
-        <v>68.81423291845898</v>
+        <v>91.27218240195415</v>
       </c>
       <c r="AD3" t="n">
-        <v>55600.23544253401</v>
+        <v>73745.71532194391</v>
       </c>
       <c r="AE3" t="n">
-        <v>76074.69504171815</v>
+        <v>100902.1411347886</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.326654499966068e-06</v>
+        <v>1.007917655522376e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.392361111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>68814.23291845899</v>
+        <v>91272.18240195415</v>
       </c>
     </row>
     <row r="4">
@@ -5623,28 +5623,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>55.46212788184883</v>
+        <v>73.60760776125872</v>
       </c>
       <c r="AB4" t="n">
-        <v>75.88573018431323</v>
+        <v>100.7131762773837</v>
       </c>
       <c r="AC4" t="n">
-        <v>68.64330260183087</v>
+        <v>91.10125208532605</v>
       </c>
       <c r="AD4" t="n">
-        <v>55462.12788184883</v>
+        <v>73607.60776125873</v>
       </c>
       <c r="AE4" t="n">
-        <v>75885.73018431323</v>
+        <v>100713.1762773837</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.369980349187315e-06</v>
+        <v>1.016115838522771e-05</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.357638888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>68643.30260183087</v>
+        <v>91101.25208532605</v>
       </c>
     </row>
   </sheetData>
@@ -5920,28 +5920,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.51126649102729</v>
+        <v>91.50461755752301</v>
       </c>
       <c r="AB2" t="n">
-        <v>99.2131137842905</v>
+        <v>125.200654640968</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.74435345122227</v>
+        <v>113.2516798822894</v>
       </c>
       <c r="AD2" t="n">
-        <v>72511.26649102729</v>
+        <v>91504.617557523</v>
       </c>
       <c r="AE2" t="n">
-        <v>99213.1137842905</v>
+        <v>125200.654640968</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.421556258679352e-06</v>
+        <v>8.055115252805719e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.060763888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>89744.35345122227</v>
+        <v>113251.6798822894</v>
       </c>
     </row>
     <row r="3">
@@ -6026,28 +6026,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>60.30727122975423</v>
+        <v>79.38587364227051</v>
       </c>
       <c r="AB3" t="n">
-        <v>82.51506906555267</v>
+        <v>108.6192545748794</v>
       </c>
       <c r="AC3" t="n">
-        <v>74.6399466845825</v>
+        <v>98.25278536636191</v>
       </c>
       <c r="AD3" t="n">
-        <v>60307.27122975423</v>
+        <v>79385.87364227051</v>
       </c>
       <c r="AE3" t="n">
-        <v>82515.06906555267</v>
+        <v>108619.2545748794</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.842149918707166e-06</v>
+        <v>8.821345559040776e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>74639.94668458249</v>
+        <v>98252.7853663619</v>
       </c>
     </row>
     <row r="4">
@@ -6132,28 +6132,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>59.11960203640771</v>
+        <v>78.02761224833179</v>
       </c>
       <c r="AB4" t="n">
-        <v>80.89004767894991</v>
+        <v>106.7608214134298</v>
       </c>
       <c r="AC4" t="n">
-        <v>73.17001505838475</v>
+        <v>96.57171845751311</v>
       </c>
       <c r="AD4" t="n">
-        <v>59119.60203640771</v>
+        <v>78027.61224833179</v>
       </c>
       <c r="AE4" t="n">
-        <v>80890.04767894991</v>
+        <v>106760.8214134298</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.002968932307308e-06</v>
+        <v>9.114322875986324e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.470486111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>73170.01505838474</v>
+        <v>96571.71845751311</v>
       </c>
     </row>
     <row r="5">
@@ -6238,28 +6238,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>58.78350121963341</v>
+        <v>77.69151143155749</v>
       </c>
       <c r="AB5" t="n">
-        <v>80.430179713718</v>
+        <v>106.3009534481979</v>
       </c>
       <c r="AC5" t="n">
-        <v>72.75403624632567</v>
+        <v>96.15573964545405</v>
       </c>
       <c r="AD5" t="n">
-        <v>58783.50121963341</v>
+        <v>77691.51143155749</v>
       </c>
       <c r="AE5" t="n">
-        <v>80430.17971371801</v>
+        <v>106300.9534481979</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.048154976679972e-06</v>
+        <v>9.19664203556407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.435763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>72754.03624632568</v>
+        <v>96155.73964545404</v>
       </c>
     </row>
   </sheetData>
@@ -6535,28 +6535,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>53.25710957029032</v>
+        <v>70.77715815840415</v>
       </c>
       <c r="AB2" t="n">
-        <v>72.86872685189807</v>
+        <v>96.84043026013642</v>
       </c>
       <c r="AC2" t="n">
-        <v>65.91423783306968</v>
+        <v>87.59811551253047</v>
       </c>
       <c r="AD2" t="n">
-        <v>53257.10957029033</v>
+        <v>70777.15815840414</v>
       </c>
       <c r="AE2" t="n">
-        <v>72868.72685189807</v>
+        <v>96840.43026013642</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.498962428494388e-06</v>
+        <v>1.077619459158284e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>65914.23783306968</v>
+        <v>87598.11551253046</v>
       </c>
     </row>
     <row r="3">
@@ -6641,28 +6641,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>52.78791991804366</v>
+        <v>70.30796850615748</v>
       </c>
       <c r="AB3" t="n">
-        <v>72.22676087050792</v>
+        <v>96.19846427874629</v>
       </c>
       <c r="AC3" t="n">
-        <v>65.3335401839383</v>
+        <v>87.01741786339906</v>
       </c>
       <c r="AD3" t="n">
-        <v>52787.91991804366</v>
+        <v>70307.96850615749</v>
       </c>
       <c r="AE3" t="n">
-        <v>72226.76087050792</v>
+        <v>96198.46427874628</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.605747635266332e-06</v>
+        <v>1.098545919061229e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>65333.5401839383</v>
+        <v>87017.41786339907</v>
       </c>
     </row>
   </sheetData>
@@ -6938,28 +6938,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.41746429161147</v>
+        <v>126.8593324156387</v>
       </c>
       <c r="AB2" t="n">
-        <v>131.9226282820457</v>
+        <v>173.5745352497563</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.332117793414</v>
+        <v>157.0088252189582</v>
       </c>
       <c r="AD2" t="n">
-        <v>96417.46429161147</v>
+        <v>126859.3324156387</v>
       </c>
       <c r="AE2" t="n">
-        <v>131922.6282820457</v>
+        <v>173574.5352497563</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.42108924821106e-06</v>
+        <v>5.885919760006645e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.067708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>119332.117793414</v>
+        <v>157008.8252189582</v>
       </c>
     </row>
     <row r="3">
@@ -7044,28 +7044,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>80.39874777462686</v>
+        <v>100.7502502632098</v>
       </c>
       <c r="AB3" t="n">
-        <v>110.0051136476217</v>
+        <v>137.85093719741</v>
       </c>
       <c r="AC3" t="n">
-        <v>99.50637999426749</v>
+        <v>124.6946372263317</v>
       </c>
       <c r="AD3" t="n">
-        <v>80398.74777462686</v>
+        <v>100750.2502632098</v>
       </c>
       <c r="AE3" t="n">
-        <v>110005.1136476217</v>
+        <v>137850.93719741</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.986233617637148e-06</v>
+        <v>6.858240027009597e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>99506.3799942675</v>
+        <v>124694.6372263317</v>
       </c>
     </row>
     <row r="4">
@@ -7150,28 +7150,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.42855926260749</v>
+        <v>98.87033787808372</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.62697363803839</v>
+        <v>135.2787581362007</v>
       </c>
       <c r="AC4" t="n">
-        <v>84.69134668032973</v>
+        <v>122.3679433246473</v>
       </c>
       <c r="AD4" t="n">
-        <v>68428.55926260749</v>
+        <v>98870.33787808372</v>
       </c>
       <c r="AE4" t="n">
-        <v>93626.9736380384</v>
+        <v>135278.7581362007</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.176186448416006e-06</v>
+        <v>7.185050302636028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.973958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>84691.34668032973</v>
+        <v>122367.9433246473</v>
       </c>
     </row>
     <row r="5">
@@ -7256,28 +7256,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>67.61802733237491</v>
+        <v>98.05980594785115</v>
       </c>
       <c r="AB5" t="n">
-        <v>92.51796809294966</v>
+        <v>134.1697525911119</v>
       </c>
       <c r="AC5" t="n">
-        <v>83.68818306796486</v>
+        <v>121.3647797122825</v>
       </c>
       <c r="AD5" t="n">
-        <v>67618.02733237491</v>
+        <v>98059.80594785114</v>
       </c>
       <c r="AE5" t="n">
-        <v>92517.96809294965</v>
+        <v>134169.7525911119</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.25266531553231e-06</v>
+        <v>7.316630756264407e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.887152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>83688.18306796486</v>
+        <v>121364.7797122825</v>
       </c>
     </row>
     <row r="6">
@@ -7362,28 +7362,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>66.79977034249416</v>
+        <v>97.24154895797037</v>
       </c>
       <c r="AB6" t="n">
-        <v>91.39839278044469</v>
+        <v>133.050177278607</v>
       </c>
       <c r="AC6" t="n">
-        <v>82.67545845195119</v>
+        <v>120.3520550962688</v>
       </c>
       <c r="AD6" t="n">
-        <v>66799.77034249416</v>
+        <v>97241.54895797037</v>
       </c>
       <c r="AE6" t="n">
-        <v>91398.3927804447</v>
+        <v>133050.1772786069</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.339433892554752e-06</v>
+        <v>7.465914462414752e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>82675.45845195118</v>
+        <v>120352.0550962688</v>
       </c>
     </row>
     <row r="7">
@@ -7468,28 +7468,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>66.27872006012605</v>
+        <v>96.72049867560227</v>
       </c>
       <c r="AB7" t="n">
-        <v>90.68546879699291</v>
+        <v>132.3372532951552</v>
       </c>
       <c r="AC7" t="n">
-        <v>82.03057493288472</v>
+        <v>119.7071715772023</v>
       </c>
       <c r="AD7" t="n">
-        <v>66278.72006012604</v>
+        <v>96720.49867560227</v>
       </c>
       <c r="AE7" t="n">
-        <v>90685.46879699291</v>
+        <v>132337.2532951552</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.378247635503014e-06</v>
+        <v>7.532692777741795e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.748263888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>82030.57493288472</v>
+        <v>119707.1715772023</v>
       </c>
     </row>
     <row r="8">
@@ -7574,28 +7574,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>65.31229483656065</v>
+        <v>95.75407345203688</v>
       </c>
       <c r="AB8" t="n">
-        <v>89.36316317043961</v>
+        <v>131.0149476686018</v>
       </c>
       <c r="AC8" t="n">
-        <v>80.83446829946165</v>
+        <v>118.5110649437793</v>
       </c>
       <c r="AD8" t="n">
-        <v>65312.29483656065</v>
+        <v>95754.07345203687</v>
       </c>
       <c r="AE8" t="n">
-        <v>89363.1631704396</v>
+        <v>131014.9476686019</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.430031198844592e-06</v>
+        <v>7.621785425317456e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH8" t="n">
-        <v>80834.46829946165</v>
+        <v>118511.0649437793</v>
       </c>
     </row>
     <row r="9">
@@ -7680,28 +7680,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>65.41778295845327</v>
+        <v>95.8595615739295</v>
       </c>
       <c r="AB9" t="n">
-        <v>89.5074966726205</v>
+        <v>131.1592811707828</v>
       </c>
       <c r="AC9" t="n">
-        <v>80.96502681476778</v>
+        <v>118.6416234590854</v>
       </c>
       <c r="AD9" t="n">
-        <v>65417.78295845327</v>
+        <v>95859.5615739295</v>
       </c>
       <c r="AE9" t="n">
-        <v>89507.4966726205</v>
+        <v>131159.2811707828</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.425699948860847e-06</v>
+        <v>7.614333591116352e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.696180555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>80965.02681476779</v>
+        <v>118641.6234590854</v>
       </c>
     </row>
   </sheetData>
@@ -7977,28 +7977,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>51.15800123347267</v>
+        <v>68.30770085329442</v>
       </c>
       <c r="AB2" t="n">
-        <v>69.99663421934159</v>
+        <v>93.46160983051962</v>
       </c>
       <c r="AC2" t="n">
-        <v>63.31625369035616</v>
+        <v>84.54176496251095</v>
       </c>
       <c r="AD2" t="n">
-        <v>51158.00123347267</v>
+        <v>68307.70085329442</v>
       </c>
       <c r="AE2" t="n">
-        <v>69996.63421934159</v>
+        <v>93461.60983051962</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.739053898941033e-06</v>
+        <v>1.150485395041401e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH2" t="n">
-        <v>63316.25369035616</v>
+        <v>84541.76496251095</v>
       </c>
     </row>
   </sheetData>
@@ -8274,28 +8274,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.4808511899993</v>
+        <v>107.9236064229438</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.3809629289099</v>
+        <v>147.6658395612917</v>
       </c>
       <c r="AC2" t="n">
-        <v>97.13267453713001</v>
+        <v>133.5728190839097</v>
       </c>
       <c r="AD2" t="n">
-        <v>78480.8511899993</v>
+        <v>107923.6064229438</v>
       </c>
       <c r="AE2" t="n">
-        <v>107380.9629289099</v>
+        <v>147665.8395612917</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.92077664452848e-06</v>
+        <v>6.943986778217483e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.512152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>97132.67453713002</v>
+        <v>133572.8190839097</v>
       </c>
     </row>
     <row r="3">
@@ -8380,28 +8380,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.67104154851357</v>
+        <v>94.02845592688641</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.4857721316356</v>
+        <v>128.6538816418199</v>
       </c>
       <c r="AC3" t="n">
-        <v>80.04081422997476</v>
+        <v>116.3753357448156</v>
       </c>
       <c r="AD3" t="n">
-        <v>64671.04154851357</v>
+        <v>94028.45592688641</v>
       </c>
       <c r="AE3" t="n">
-        <v>88485.7721316356</v>
+        <v>128653.8816418199</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.431354818589432e-06</v>
+        <v>7.848258663960687e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.869791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>80040.81422997476</v>
+        <v>116375.3357448156</v>
       </c>
     </row>
     <row r="4">
@@ -8486,28 +8486,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>63.23486681841526</v>
+        <v>92.59228119678809</v>
       </c>
       <c r="AB4" t="n">
-        <v>86.52073450635868</v>
+        <v>126.6888440165429</v>
       </c>
       <c r="AC4" t="n">
-        <v>78.263317037706</v>
+        <v>114.5978385525469</v>
       </c>
       <c r="AD4" t="n">
-        <v>63234.86681841526</v>
+        <v>92592.2811967881</v>
       </c>
       <c r="AE4" t="n">
-        <v>86520.73450635868</v>
+        <v>126688.8440165429</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.621375580343443e-06</v>
+        <v>8.184799552880755e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.670138888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>78263.317037706</v>
+        <v>114597.8385525469</v>
       </c>
     </row>
     <row r="5">
@@ -8592,28 +8592,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>62.35064969351996</v>
+        <v>82.06449403672121</v>
       </c>
       <c r="AB5" t="n">
-        <v>85.31090962717107</v>
+        <v>112.2842611709566</v>
       </c>
       <c r="AC5" t="n">
-        <v>77.1689561469878</v>
+        <v>101.5680088767797</v>
       </c>
       <c r="AD5" t="n">
-        <v>62350.64969351995</v>
+        <v>82064.49403672121</v>
       </c>
       <c r="AE5" t="n">
-        <v>85310.90962717107</v>
+        <v>112284.2611709566</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.710315646233805e-06</v>
+        <v>8.342319018433158e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.583333333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>77168.9561469878</v>
+        <v>101568.0088767797</v>
       </c>
     </row>
     <row r="6">
@@ -8698,28 +8698,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>61.85805921944908</v>
+        <v>81.57190356265035</v>
       </c>
       <c r="AB6" t="n">
-        <v>84.63692560898967</v>
+        <v>111.6102771527752</v>
       </c>
       <c r="AC6" t="n">
-        <v>76.55929621755891</v>
+        <v>100.9583489473508</v>
       </c>
       <c r="AD6" t="n">
-        <v>61858.05921944908</v>
+        <v>81571.90356265035</v>
       </c>
       <c r="AE6" t="n">
-        <v>84636.92560898967</v>
+        <v>111610.2771527752</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.750046355388185e-06</v>
+        <v>8.412685056611392e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>76559.29621755891</v>
+        <v>100958.3489473508</v>
       </c>
     </row>
     <row r="7">
@@ -8804,28 +8804,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>61.9500298966455</v>
+        <v>81.66387423984676</v>
       </c>
       <c r="AB7" t="n">
-        <v>84.76276394698965</v>
+        <v>111.7361154907752</v>
       </c>
       <c r="AC7" t="n">
-        <v>76.67312472119544</v>
+        <v>101.0721774509874</v>
       </c>
       <c r="AD7" t="n">
-        <v>61950.0298966455</v>
+        <v>81663.87423984676</v>
       </c>
       <c r="AE7" t="n">
-        <v>84762.76394698965</v>
+        <v>111736.1154907752</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.746264847691588e-06</v>
+        <v>8.405987725488605e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.548611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>76673.12472119543</v>
+        <v>101072.1774509874</v>
       </c>
     </row>
   </sheetData>
@@ -9101,28 +9101,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>82.16469237108025</v>
+        <v>112.1712674525568</v>
       </c>
       <c r="AB2" t="n">
-        <v>112.4213569524651</v>
+        <v>153.4776767755844</v>
       </c>
       <c r="AC2" t="n">
-        <v>101.6920204293162</v>
+        <v>138.8299827114369</v>
       </c>
       <c r="AD2" t="n">
-        <v>82164.69237108025</v>
+        <v>112171.2674525568</v>
       </c>
       <c r="AE2" t="n">
-        <v>112421.3569524651</v>
+        <v>153477.6767755844</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.671826789854613e-06</v>
+        <v>6.403345300512615e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>101692.0204293162</v>
+        <v>138829.9827114369</v>
       </c>
     </row>
     <row r="3">
@@ -9207,28 +9207,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.51722347334382</v>
+        <v>97.52169636954588</v>
       </c>
       <c r="AB3" t="n">
-        <v>106.062484974728</v>
+        <v>133.4334873263559</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.94003026839941</v>
+        <v>120.6987825710397</v>
       </c>
       <c r="AD3" t="n">
-        <v>77517.22347334382</v>
+        <v>97521.69636954588</v>
       </c>
       <c r="AE3" t="n">
-        <v>106062.484974728</v>
+        <v>133433.4873263559</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.196906259829906e-06</v>
+        <v>7.319038046627984e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.043402777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>95940.03026839941</v>
+        <v>120698.7825710397</v>
       </c>
     </row>
     <row r="4">
@@ -9313,28 +9313,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>65.90092107743796</v>
+        <v>95.82215530434286</v>
       </c>
       <c r="AB4" t="n">
-        <v>90.16854756156454</v>
+        <v>131.1081002624862</v>
       </c>
       <c r="AC4" t="n">
-        <v>81.56298793466196</v>
+        <v>118.5953271848438</v>
       </c>
       <c r="AD4" t="n">
-        <v>65900.92107743796</v>
+        <v>95822.15530434286</v>
       </c>
       <c r="AE4" t="n">
-        <v>90168.54756156454</v>
+        <v>131108.1002624862</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.388524555799256e-06</v>
+        <v>7.653203622841385e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>81562.98793466196</v>
+        <v>118595.3271848438</v>
       </c>
     </row>
     <row r="5">
@@ -9419,28 +9419,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>65.07847073534992</v>
+        <v>94.99970496225482</v>
       </c>
       <c r="AB5" t="n">
-        <v>89.04323471957194</v>
+        <v>129.9827874204936</v>
       </c>
       <c r="AC5" t="n">
-        <v>80.54507337092228</v>
+        <v>117.5774126211041</v>
       </c>
       <c r="AD5" t="n">
-        <v>65078.47073534993</v>
+        <v>94999.70496225482</v>
       </c>
       <c r="AE5" t="n">
-        <v>89043.23471957195</v>
+        <v>129982.7874204936</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.470354172841504e-06</v>
+        <v>7.795907329666013e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.730902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>80545.07337092228</v>
+        <v>117577.4126211041</v>
       </c>
     </row>
     <row r="6">
@@ -9525,28 +9525,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>64.36403355540958</v>
+        <v>94.28526778231448</v>
       </c>
       <c r="AB6" t="n">
-        <v>88.06571025123415</v>
+        <v>129.0052629521558</v>
       </c>
       <c r="AC6" t="n">
-        <v>79.66084246587813</v>
+        <v>116.69318171606</v>
       </c>
       <c r="AD6" t="n">
-        <v>64364.03355540958</v>
+        <v>94285.26778231448</v>
       </c>
       <c r="AE6" t="n">
-        <v>88065.71025123415</v>
+        <v>129005.2629521558</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.518691417582278e-06</v>
+        <v>7.88020326372417e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.678819444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>79660.84246587813</v>
+        <v>116693.18171606</v>
       </c>
     </row>
     <row r="7">
@@ -9631,28 +9631,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>63.86100269227938</v>
+        <v>93.78223691918427</v>
       </c>
       <c r="AB7" t="n">
-        <v>87.37744123214434</v>
+        <v>128.316993933066</v>
       </c>
       <c r="AC7" t="n">
-        <v>79.03826087597839</v>
+        <v>116.0706001261602</v>
       </c>
       <c r="AD7" t="n">
-        <v>63861.00269227938</v>
+        <v>93782.23691918427</v>
       </c>
       <c r="AE7" t="n">
-        <v>87377.44123214434</v>
+        <v>128316.993933066</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.557400214681798e-06</v>
+        <v>7.947708025844368e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>79038.26087597839</v>
+        <v>116070.6001261602</v>
       </c>
     </row>
     <row r="8">
@@ -9737,28 +9737,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>63.74361743061394</v>
+        <v>93.66485165751882</v>
       </c>
       <c r="AB8" t="n">
-        <v>87.21682953846151</v>
+        <v>128.1563822393832</v>
       </c>
       <c r="AC8" t="n">
-        <v>78.89297773692067</v>
+        <v>115.9253169871025</v>
       </c>
       <c r="AD8" t="n">
-        <v>63743.61743061394</v>
+        <v>93664.85165751883</v>
       </c>
       <c r="AE8" t="n">
-        <v>87216.8295384615</v>
+        <v>128156.3822393832</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.560008427080821e-06</v>
+        <v>7.952256520521234e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.644097222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>78892.97773692067</v>
+        <v>115925.3169871025</v>
       </c>
     </row>
   </sheetData>
@@ -10034,28 +10034,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>100.8351735275324</v>
+        <v>131.7621981530595</v>
       </c>
       <c r="AB2" t="n">
-        <v>137.9671329542061</v>
+        <v>180.2828524508627</v>
       </c>
       <c r="AC2" t="n">
-        <v>124.7997434231809</v>
+        <v>163.0769100415754</v>
       </c>
       <c r="AD2" t="n">
-        <v>100835.1735275324</v>
+        <v>131762.1981530595</v>
       </c>
       <c r="AE2" t="n">
-        <v>137967.1329542061</v>
+        <v>180282.8524508627</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189775271620105e-06</v>
+        <v>5.422406555000104e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.40625</v>
       </c>
       <c r="AH2" t="n">
-        <v>124799.7434231809</v>
+        <v>163076.9100415754</v>
       </c>
     </row>
     <row r="3">
@@ -10140,28 +10140,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>83.24070644411049</v>
+        <v>114.0823902150659</v>
       </c>
       <c r="AB3" t="n">
-        <v>113.893606877575</v>
+        <v>156.092559252034</v>
       </c>
       <c r="AC3" t="n">
-        <v>103.0237608878898</v>
+        <v>141.1953044743455</v>
       </c>
       <c r="AD3" t="n">
-        <v>83240.70644411049</v>
+        <v>114082.3902150659</v>
       </c>
       <c r="AE3" t="n">
-        <v>113893.606877575</v>
+        <v>156092.559252034</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.792824034920283e-06</v>
+        <v>6.447549484722157e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.381944444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>103023.7608878898</v>
+        <v>141195.3044743455</v>
       </c>
     </row>
     <row r="4">
@@ -10246,28 +10246,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.51867275725901</v>
+        <v>102.1936129135085</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.5374444164614</v>
+        <v>139.8258096522137</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.8924672651694</v>
+        <v>126.4810306258005</v>
       </c>
       <c r="AD4" t="n">
-        <v>81518.67275725902</v>
+        <v>102193.6129135085</v>
       </c>
       <c r="AE4" t="n">
-        <v>111537.4444164614</v>
+        <v>139825.8096522137</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.971919941683224e-06</v>
+        <v>6.752000656391005e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.138888888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>100892.4672651694</v>
+        <v>126481.0306258005</v>
       </c>
     </row>
     <row r="5">
@@ -10352,28 +10352,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>69.80047205596769</v>
+        <v>100.7274071729437</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.5040852464337</v>
+        <v>137.8196822735419</v>
       </c>
       <c r="AC5" t="n">
-        <v>86.38930939136308</v>
+        <v>124.666365228531</v>
       </c>
       <c r="AD5" t="n">
-        <v>69800.47205596769</v>
+        <v>100727.4071729437</v>
       </c>
       <c r="AE5" t="n">
-        <v>95504.08524643371</v>
+        <v>137819.6822735419</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.101159801884069e-06</v>
+        <v>6.971699853182516e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.982638888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>86389.30939136309</v>
+        <v>124666.365228531</v>
       </c>
     </row>
     <row r="6">
@@ -10458,28 +10458,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>69.39668434031248</v>
+        <v>100.3236194572885</v>
       </c>
       <c r="AB6" t="n">
-        <v>94.95160508001774</v>
+        <v>137.2672021071259</v>
       </c>
       <c r="AC6" t="n">
-        <v>85.88955715661891</v>
+        <v>124.1666129937868</v>
       </c>
       <c r="AD6" t="n">
-        <v>69396.68434031248</v>
+        <v>100323.6194572885</v>
       </c>
       <c r="AE6" t="n">
-        <v>94951.60508001775</v>
+        <v>137267.202107126</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.128946489467758e-06</v>
+        <v>7.018935380473755e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.947916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>85889.5571566189</v>
+        <v>124166.6129937868</v>
       </c>
     </row>
     <row r="7">
@@ -10564,28 +10564,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>68.65571716158146</v>
+        <v>99.58265227855749</v>
       </c>
       <c r="AB7" t="n">
-        <v>93.93778109691364</v>
+        <v>136.2533781240219</v>
       </c>
       <c r="AC7" t="n">
-        <v>84.97249111155104</v>
+        <v>123.249546948719</v>
       </c>
       <c r="AD7" t="n">
-        <v>68655.71716158146</v>
+        <v>99582.65227855749</v>
       </c>
       <c r="AE7" t="n">
-        <v>93937.78109691363</v>
+        <v>136253.3781240219</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.183602268686138e-06</v>
+        <v>7.111846582757878e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.878472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>84972.49111155103</v>
+        <v>123249.546948719</v>
       </c>
     </row>
     <row r="8">
@@ -10670,28 +10670,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>68.09394861658207</v>
+        <v>99.02088373355811</v>
       </c>
       <c r="AB8" t="n">
-        <v>93.16914459016678</v>
+        <v>135.484741617275</v>
       </c>
       <c r="AC8" t="n">
-        <v>84.27721219421974</v>
+        <v>122.5542680313877</v>
       </c>
       <c r="AD8" t="n">
-        <v>68093.94861658207</v>
+        <v>99020.8837335581</v>
       </c>
       <c r="AE8" t="n">
-        <v>93169.14459016678</v>
+        <v>135484.741617275</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.226611637782651e-06</v>
+        <v>7.184959659716712e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>84277.21219421974</v>
+        <v>122554.2680313877</v>
       </c>
     </row>
     <row r="9">
@@ -10776,28 +10776,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>67.45582461573886</v>
+        <v>98.3827597327149</v>
       </c>
       <c r="AB9" t="n">
-        <v>92.29603518016951</v>
+        <v>134.6116322072777</v>
       </c>
       <c r="AC9" t="n">
-        <v>83.48743112089558</v>
+        <v>121.7644869580635</v>
       </c>
       <c r="AD9" t="n">
-        <v>67455.82461573886</v>
+        <v>98382.7597327149</v>
       </c>
       <c r="AE9" t="n">
-        <v>92296.03518016951</v>
+        <v>134611.6322072777</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.265127139539211e-06</v>
+        <v>7.250433460034882e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>83487.43112089558</v>
+        <v>121764.4869580635</v>
       </c>
     </row>
     <row r="10">
@@ -10882,28 +10882,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>67.47550057209934</v>
+        <v>98.40243568907538</v>
       </c>
       <c r="AB10" t="n">
-        <v>92.32295669170382</v>
+        <v>134.638553718812</v>
       </c>
       <c r="AC10" t="n">
-        <v>83.51178328115364</v>
+        <v>121.7888391183216</v>
       </c>
       <c r="AD10" t="n">
-        <v>67475.50057209934</v>
+        <v>98402.43568907537</v>
       </c>
       <c r="AE10" t="n">
-        <v>92322.95669170382</v>
+        <v>134638.553718812</v>
       </c>
       <c r="AF10" t="n">
-        <v>4.262774329413581e-06</v>
+        <v>7.246433838757045e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>83511.78328115364</v>
+        <v>121788.8391183216</v>
       </c>
     </row>
   </sheetData>
@@ -11179,28 +11179,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.49851084585282</v>
+        <v>93.71489307671159</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.9321491815949</v>
+        <v>128.2248511167943</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.20388792639891</v>
+        <v>115.9872512909502</v>
       </c>
       <c r="AD2" t="n">
-        <v>74498.51084585283</v>
+        <v>93714.8930767116</v>
       </c>
       <c r="AE2" t="n">
-        <v>101932.1491815949</v>
+        <v>128224.8511167943</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.239356932046564e-06</v>
+        <v>7.644563749660452e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.208333333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>92203.88792639891</v>
+        <v>115987.2512909502</v>
       </c>
     </row>
     <row r="3">
@@ -11285,28 +11285,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>61.62805978812472</v>
+        <v>90.36715801701469</v>
       </c>
       <c r="AB3" t="n">
-        <v>84.32223024019305</v>
+        <v>123.644332316472</v>
       </c>
       <c r="AC3" t="n">
-        <v>76.27463493308241</v>
+        <v>111.8438907761307</v>
       </c>
       <c r="AD3" t="n">
-        <v>61628.05978812472</v>
+        <v>90367.15801701469</v>
       </c>
       <c r="AE3" t="n">
-        <v>84322.23024019305</v>
+        <v>123644.332316472</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.726542789107591e-06</v>
+        <v>8.523075137574669e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.678819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>76274.63493308242</v>
+        <v>111843.8907761307</v>
       </c>
     </row>
     <row r="4">
@@ -11391,28 +11391,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>60.53412006028478</v>
+        <v>79.83575363716412</v>
       </c>
       <c r="AB4" t="n">
-        <v>82.82545364334851</v>
+        <v>109.2348002311972</v>
       </c>
       <c r="AC4" t="n">
-        <v>74.92070859390107</v>
+        <v>98.8095842091646</v>
       </c>
       <c r="AD4" t="n">
-        <v>60534.12006028477</v>
+        <v>79835.75363716412</v>
       </c>
       <c r="AE4" t="n">
-        <v>82825.4536433485</v>
+        <v>109234.8002311972</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.851673702028804e-06</v>
+        <v>8.748715784543653e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.557291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>74920.70859390107</v>
+        <v>98809.5842091646</v>
       </c>
     </row>
     <row r="5">
@@ -11497,28 +11497,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>59.87607749363541</v>
+        <v>79.00711886992256</v>
       </c>
       <c r="AB5" t="n">
-        <v>81.92509077287015</v>
+        <v>108.101025585872</v>
       </c>
       <c r="AC5" t="n">
-        <v>74.10627509211366</v>
+        <v>97.78401542472615</v>
       </c>
       <c r="AD5" t="n">
-        <v>59876.07749363541</v>
+        <v>79007.11886992256</v>
       </c>
       <c r="AE5" t="n">
-        <v>81925.09077287014</v>
+        <v>108101.0255858719</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.927856944985107e-06</v>
+        <v>8.886092199592099e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH5" t="n">
-        <v>74106.27509211366</v>
+        <v>97784.01542472615</v>
       </c>
     </row>
     <row r="6">
@@ -11603,28 +11603,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>59.93722656453257</v>
+        <v>79.06826794081971</v>
       </c>
       <c r="AB6" t="n">
-        <v>82.00875762937821</v>
+        <v>108.18469244238</v>
       </c>
       <c r="AC6" t="n">
-        <v>74.18195690126379</v>
+        <v>97.85969723387629</v>
       </c>
       <c r="AD6" t="n">
-        <v>59937.22656453257</v>
+        <v>79068.26794081971</v>
       </c>
       <c r="AE6" t="n">
-        <v>82008.7576293782</v>
+        <v>108184.69244238</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.926813338917213e-06</v>
+        <v>8.884210330892802e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.487847222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>74181.95690126379</v>
+        <v>97859.69723387629</v>
       </c>
     </row>
   </sheetData>
@@ -11900,28 +11900,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>59.38301875409447</v>
+        <v>87.0528393979512</v>
       </c>
       <c r="AB2" t="n">
-        <v>81.25046605321415</v>
+        <v>119.1095353644536</v>
       </c>
       <c r="AC2" t="n">
-        <v>73.4960356088597</v>
+        <v>107.7418884805841</v>
       </c>
       <c r="AD2" t="n">
-        <v>59383.01875409448</v>
+        <v>87052.8393979512</v>
       </c>
       <c r="AE2" t="n">
-        <v>81250.46605321416</v>
+        <v>119109.5353644536</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.774744851788951e-06</v>
+        <v>8.908147680921032e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.817708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>73496.0356088597</v>
+        <v>107741.888480584</v>
       </c>
     </row>
     <row r="3">
@@ -12006,28 +12006,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>57.14532811414628</v>
+        <v>75.56351776707794</v>
       </c>
       <c r="AB3" t="n">
-        <v>78.18875899969485</v>
+        <v>103.3893386360037</v>
       </c>
       <c r="AC3" t="n">
-        <v>70.72653357939446</v>
+        <v>93.52200526445766</v>
       </c>
       <c r="AD3" t="n">
-        <v>57145.32811414628</v>
+        <v>75563.51776707794</v>
       </c>
       <c r="AE3" t="n">
-        <v>78188.75899969485</v>
+        <v>103389.3386360037</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.180574698921528e-06</v>
+        <v>9.665296455106965e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.444444444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>70726.53357939445</v>
+        <v>93522.00526445766</v>
       </c>
     </row>
     <row r="4">
@@ -12112,28 +12112,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>56.51993309878166</v>
+        <v>74.93812275171332</v>
       </c>
       <c r="AB4" t="n">
-        <v>77.33306594919257</v>
+        <v>102.5336455855014</v>
       </c>
       <c r="AC4" t="n">
-        <v>69.9525066726591</v>
+        <v>92.74797835772232</v>
       </c>
       <c r="AD4" t="n">
-        <v>56519.93309878166</v>
+        <v>74938.12275171332</v>
       </c>
       <c r="AE4" t="n">
-        <v>77333.06594919258</v>
+        <v>102533.6455855014</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.270670727966119e-06</v>
+        <v>9.833386846762774e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.366319444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>69952.5066726591</v>
+        <v>92747.97835772231</v>
       </c>
     </row>
   </sheetData>
@@ -21662,28 +21662,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>55.35955461158348</v>
+        <v>73.37854075914026</v>
       </c>
       <c r="AB2" t="n">
-        <v>75.74538491072293</v>
+        <v>100.3997566993624</v>
       </c>
       <c r="AC2" t="n">
-        <v>68.51635168417617</v>
+        <v>90.8177448319439</v>
       </c>
       <c r="AD2" t="n">
-        <v>55359.55461158348</v>
+        <v>73378.54075914026</v>
       </c>
       <c r="AE2" t="n">
-        <v>75745.38491072293</v>
+        <v>100399.7566993624</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.241290365162361e-06</v>
+        <v>1.007919573816326e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.539930555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>68516.35168417617</v>
+        <v>90817.7448319439</v>
       </c>
     </row>
     <row r="3">
@@ -21768,28 +21768,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>54.09767834659154</v>
+        <v>71.9460722935561</v>
       </c>
       <c r="AB3" t="n">
-        <v>74.01883013491</v>
+        <v>98.43979014870263</v>
       </c>
       <c r="AC3" t="n">
-        <v>66.95457687293143</v>
+        <v>89.04483473804812</v>
       </c>
       <c r="AD3" t="n">
-        <v>54097.67834659154</v>
+        <v>71946.07229355611</v>
       </c>
       <c r="AE3" t="n">
-        <v>74018.83013491001</v>
+        <v>98439.79014870262</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.496589778112762e-06</v>
+        <v>1.057014597669017e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.331597222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>66954.57687293143</v>
+        <v>89044.83473804813</v>
       </c>
     </row>
   </sheetData>
@@ -22065,28 +22065,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>49.40036295495749</v>
+        <v>66.11924510914194</v>
       </c>
       <c r="AB2" t="n">
-        <v>67.59175598515007</v>
+        <v>90.46726813351829</v>
       </c>
       <c r="AC2" t="n">
-        <v>61.14089365956732</v>
+        <v>81.83319903448552</v>
       </c>
       <c r="AD2" t="n">
-        <v>49400.36295495749</v>
+        <v>66119.24510914195</v>
       </c>
       <c r="AE2" t="n">
-        <v>67591.75598515007</v>
+        <v>90467.26813351829</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.827187025318547e-06</v>
+        <v>1.201915200387581e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.383680555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>61140.89365956731</v>
+        <v>81833.19903448551</v>
       </c>
     </row>
   </sheetData>
@@ -22362,28 +22362,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.11861820717421</v>
+        <v>109.849296117736</v>
       </c>
       <c r="AB2" t="n">
-        <v>109.6218280149888</v>
+        <v>150.3006531571386</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.15967460446825</v>
+        <v>135.9561697681539</v>
       </c>
       <c r="AD2" t="n">
-        <v>80118.61820717421</v>
+        <v>109849.296117736</v>
       </c>
       <c r="AE2" t="n">
-        <v>109621.8280149888</v>
+        <v>150300.6531571386</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.808066675446823e-06</v>
+        <v>6.690622928999899e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.607638888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>99159.67460446825</v>
+        <v>135956.1697681539</v>
       </c>
     </row>
     <row r="3">
@@ -22468,28 +22468,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>65.90918392958709</v>
+        <v>95.55452098557723</v>
       </c>
       <c r="AB3" t="n">
-        <v>90.17985316040627</v>
+        <v>130.7419111803584</v>
       </c>
       <c r="AC3" t="n">
-        <v>81.57321454301777</v>
+        <v>118.2640866747646</v>
       </c>
       <c r="AD3" t="n">
-        <v>65909.18392958709</v>
+        <v>95554.52098557723</v>
       </c>
       <c r="AE3" t="n">
-        <v>90179.85316040627</v>
+        <v>130741.9111803584</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.332454731918724e-06</v>
+        <v>7.611952058278584e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.930555555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>81573.21454301776</v>
+        <v>118264.0866747646</v>
       </c>
     </row>
     <row r="4">
@@ -22574,28 +22574,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>64.69386342314739</v>
+        <v>94.33920047913753</v>
       </c>
       <c r="AB4" t="n">
-        <v>88.51699802733962</v>
+        <v>129.0790560472917</v>
       </c>
       <c r="AC4" t="n">
-        <v>80.0690599700186</v>
+        <v>116.7599321017654</v>
       </c>
       <c r="AD4" t="n">
-        <v>64693.86342314739</v>
+        <v>94339.20047913754</v>
       </c>
       <c r="AE4" t="n">
-        <v>88516.99802733962</v>
+        <v>129079.0560472917</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.485487415441228e-06</v>
+        <v>7.880824446428645e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.765625</v>
       </c>
       <c r="AH4" t="n">
-        <v>80069.0599700186</v>
+        <v>116759.9321017654</v>
       </c>
     </row>
     <row r="5">
@@ -22680,28 +22680,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>63.88270226778749</v>
+        <v>93.52803932377763</v>
       </c>
       <c r="AB5" t="n">
-        <v>87.40713154867223</v>
+        <v>127.9691895686244</v>
       </c>
       <c r="AC5" t="n">
-        <v>79.06511759036751</v>
+        <v>115.7559897221143</v>
       </c>
       <c r="AD5" t="n">
-        <v>63882.70226778749</v>
+        <v>93528.03932377763</v>
       </c>
       <c r="AE5" t="n">
-        <v>87407.13154867223</v>
+        <v>127969.1895686244</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.55934488818375e-06</v>
+        <v>8.010589112524235e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.6875</v>
       </c>
       <c r="AH5" t="n">
-        <v>79065.1175903675</v>
+        <v>115755.9897221143</v>
       </c>
     </row>
     <row r="6">
@@ -22786,28 +22786,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>63.01979634936708</v>
+        <v>82.92558914431321</v>
       </c>
       <c r="AB6" t="n">
-        <v>86.22646560236765</v>
+        <v>113.4624494859984</v>
       </c>
       <c r="AC6" t="n">
-        <v>77.99713274490279</v>
+        <v>102.633752552632</v>
       </c>
       <c r="AD6" t="n">
-        <v>63019.79634936708</v>
+        <v>82925.58914431321</v>
       </c>
       <c r="AE6" t="n">
-        <v>86226.46560236765</v>
+        <v>113462.4494859984</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.645364224771206e-06</v>
+        <v>8.161721693636898e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>77997.13274490279</v>
+        <v>102633.752552632</v>
       </c>
     </row>
     <row r="7">
@@ -22892,28 +22892,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>62.94359063028071</v>
+        <v>82.84938342522685</v>
       </c>
       <c r="AB7" t="n">
-        <v>86.12219757555469</v>
+        <v>113.3581814591855</v>
       </c>
       <c r="AC7" t="n">
-        <v>77.90281591222772</v>
+        <v>102.5394357199569</v>
       </c>
       <c r="AD7" t="n">
-        <v>62943.59063028071</v>
+        <v>82849.38342522684</v>
       </c>
       <c r="AE7" t="n">
-        <v>86122.19757555469</v>
+        <v>113358.1814591855</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.645856607922823e-06</v>
+        <v>8.162586791410869e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.600694444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>77902.81591222773</v>
+        <v>102539.4357199569</v>
       </c>
     </row>
   </sheetData>
@@ -23189,28 +23189,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>98.30348437175651</v>
+        <v>128.9919533429822</v>
       </c>
       <c r="AB2" t="n">
-        <v>134.5031641610324</v>
+        <v>176.4924812871413</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.6663709499159</v>
+        <v>159.6482865818991</v>
       </c>
       <c r="AD2" t="n">
-        <v>98303.48437175651</v>
+        <v>128991.9533429822</v>
       </c>
       <c r="AE2" t="n">
-        <v>134503.1641610324</v>
+        <v>176492.4812871413</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321237618286763e-06</v>
+        <v>5.678946200594086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121666.3709499159</v>
+        <v>159648.2865818991</v>
       </c>
     </row>
     <row r="3">
@@ -23295,28 +23295,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>82.11346020363112</v>
+        <v>112.7165883202852</v>
       </c>
       <c r="AB3" t="n">
-        <v>112.3512588407576</v>
+        <v>154.2238088446688</v>
       </c>
       <c r="AC3" t="n">
-        <v>101.6286123830067</v>
+        <v>139.504904983051</v>
       </c>
       <c r="AD3" t="n">
-        <v>82113.46020363113</v>
+        <v>112716.5883202852</v>
       </c>
       <c r="AE3" t="n">
-        <v>112351.2588407576</v>
+        <v>154223.8088446688</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.859103695044653e-06</v>
+        <v>6.598637250766014e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>101628.6123830067</v>
+        <v>139504.904983051</v>
       </c>
     </row>
     <row r="4">
@@ -23401,28 +23401,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.88918291589712</v>
+        <v>100.405085969279</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.307904527493</v>
+        <v>137.3786681828802</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.87571153402456</v>
+        <v>124.2674409037147</v>
       </c>
       <c r="AD4" t="n">
-        <v>79889.18291589712</v>
+        <v>100405.085969279</v>
       </c>
       <c r="AE4" t="n">
-        <v>109307.904527493</v>
+        <v>137378.6681828802</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.095606293809624e-06</v>
+        <v>7.00303033823796e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.026041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>98875.71153402457</v>
+        <v>124267.4409037147</v>
       </c>
     </row>
     <row r="5">
@@ -23507,28 +23507,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>68.75612114912633</v>
+        <v>99.44450061180096</v>
       </c>
       <c r="AB5" t="n">
-        <v>94.07515826218376</v>
+        <v>136.0643529187442</v>
       </c>
       <c r="AC5" t="n">
-        <v>85.09675719297788</v>
+        <v>123.0785620437345</v>
       </c>
       <c r="AD5" t="n">
-        <v>68756.12114912632</v>
+        <v>99444.50061180096</v>
       </c>
       <c r="AE5" t="n">
-        <v>94075.15826218376</v>
+        <v>136064.3529187443</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.172234179656835e-06</v>
+        <v>7.134055483441528e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.939236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>85096.75719297788</v>
+        <v>123078.5620437345</v>
       </c>
     </row>
     <row r="6">
@@ -23613,28 +23613,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>67.86163826456081</v>
+        <v>98.55001772723546</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.85128731772205</v>
+        <v>134.8404819742826</v>
       </c>
       <c r="AC6" t="n">
-        <v>83.98969077374156</v>
+        <v>121.9714956244981</v>
       </c>
       <c r="AD6" t="n">
-        <v>67861.63826456081</v>
+        <v>98550.01772723546</v>
       </c>
       <c r="AE6" t="n">
-        <v>92851.28731772206</v>
+        <v>134840.4819742826</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.260273215068291e-06</v>
+        <v>7.284592422714112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.835069444444445</v>
       </c>
       <c r="AH6" t="n">
-        <v>83989.69077374156</v>
+        <v>121971.4956244981</v>
       </c>
     </row>
     <row r="7">
@@ -23719,28 +23719,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>67.34542525978934</v>
+        <v>98.03380472246397</v>
       </c>
       <c r="AB7" t="n">
-        <v>92.14498191088359</v>
+        <v>134.1341765674441</v>
       </c>
       <c r="AC7" t="n">
-        <v>83.35079416362566</v>
+        <v>121.3325990143822</v>
       </c>
       <c r="AD7" t="n">
-        <v>67345.42525978934</v>
+        <v>98033.80472246397</v>
       </c>
       <c r="AE7" t="n">
-        <v>92144.98191088358</v>
+        <v>134134.1765674441</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.295408168300402e-06</v>
+        <v>7.344669277217669e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>5</v>
+        <v>4.791666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>83350.79416362566</v>
+        <v>121332.5990143822</v>
       </c>
     </row>
     <row r="8">
@@ -23825,28 +23825,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>66.85330411540659</v>
+        <v>97.54168357808122</v>
       </c>
       <c r="AB8" t="n">
-        <v>91.47164005028684</v>
+        <v>133.4608347068474</v>
       </c>
       <c r="AC8" t="n">
-        <v>82.74171510516281</v>
+        <v>120.7235199559194</v>
       </c>
       <c r="AD8" t="n">
-        <v>66853.30411540659</v>
+        <v>97541.68357808123</v>
       </c>
       <c r="AE8" t="n">
-        <v>91471.64005028683</v>
+        <v>133460.8347068474</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.303853842406164e-06</v>
+        <v>7.359110438732367e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>82741.71510516282</v>
+        <v>120723.5199559194</v>
       </c>
     </row>
     <row r="9">
@@ -23931,28 +23931,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>66.43934659086341</v>
+        <v>97.12772605353807</v>
       </c>
       <c r="AB9" t="n">
-        <v>90.90524510269007</v>
+        <v>132.8944397592506</v>
       </c>
       <c r="AC9" t="n">
-        <v>82.2293760964242</v>
+        <v>120.2111809471808</v>
       </c>
       <c r="AD9" t="n">
-        <v>66439.34659086341</v>
+        <v>97127.72605353806</v>
       </c>
       <c r="AE9" t="n">
-        <v>90905.24510269007</v>
+        <v>132894.4397592506</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.34105276655738e-06</v>
+        <v>7.422716453493727e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4.739583333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>82229.37609642421</v>
+        <v>120211.1809471808</v>
       </c>
     </row>
   </sheetData>
@@ -24228,28 +24228,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>47.28773149834838</v>
+        <v>63.64892928641429</v>
       </c>
       <c r="AB2" t="n">
-        <v>64.701160423497</v>
+        <v>87.0872730422215</v>
       </c>
       <c r="AC2" t="n">
-        <v>58.52617248134114</v>
+        <v>78.7757859308481</v>
       </c>
       <c r="AD2" t="n">
-        <v>47287.73149834838</v>
+        <v>63648.92928641428</v>
       </c>
       <c r="AE2" t="n">
-        <v>64701.160423497</v>
+        <v>87087.2730422215</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.783153785813494e-06</v>
+        <v>1.239596222846898e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.574652777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>58526.17248134114</v>
+        <v>78775.7859308481</v>
       </c>
     </row>
   </sheetData>
@@ -24525,28 +24525,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>60.97595052691371</v>
+        <v>89.0253415975799</v>
       </c>
       <c r="AB2" t="n">
-        <v>83.42998557997441</v>
+        <v>121.8083998946397</v>
       </c>
       <c r="AC2" t="n">
-        <v>75.4675448509615</v>
+        <v>110.1831771678902</v>
       </c>
       <c r="AD2" t="n">
-        <v>60975.95052691372</v>
+        <v>89025.3415975799</v>
       </c>
       <c r="AE2" t="n">
-        <v>83429.98557997441</v>
+        <v>121808.3998946397</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.621226006144452e-06</v>
+        <v>8.514297145789379e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.904513888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>75467.54485096151</v>
+        <v>110183.1771678902</v>
       </c>
     </row>
     <row r="3">
@@ -24631,28 +24631,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>58.68842963377141</v>
+        <v>77.53025843850156</v>
       </c>
       <c r="AB3" t="n">
-        <v>80.30009857567933</v>
+        <v>106.0803199891189</v>
       </c>
       <c r="AC3" t="n">
-        <v>72.63636986953134</v>
+        <v>95.95616313404847</v>
       </c>
       <c r="AD3" t="n">
-        <v>58688.4296337714</v>
+        <v>77530.25843850157</v>
       </c>
       <c r="AE3" t="n">
-        <v>80300.09857567932</v>
+        <v>106080.3199891189</v>
       </c>
       <c r="AF3" t="n">
-        <v>5.013615696594882e-06</v>
+        <v>9.23724867791465e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.522569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>72636.36986953134</v>
+        <v>95956.16313404846</v>
       </c>
     </row>
     <row r="4">
@@ -24737,28 +24737,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>57.78744669497054</v>
+        <v>76.4586832991085</v>
       </c>
       <c r="AB4" t="n">
-        <v>79.06733397025064</v>
+        <v>104.6141436088433</v>
       </c>
       <c r="AC4" t="n">
-        <v>71.52125858784839</v>
+        <v>94.6299165697145</v>
       </c>
       <c r="AD4" t="n">
-        <v>57787.44669497054</v>
+        <v>76458.6832991085</v>
       </c>
       <c r="AE4" t="n">
-        <v>79067.33397025065</v>
+        <v>104614.1436088434</v>
       </c>
       <c r="AF4" t="n">
-        <v>5.130381546017107e-06</v>
+        <v>9.452381877879217e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>71521.2585878484</v>
+        <v>94629.91656971449</v>
       </c>
     </row>
     <row r="5">
@@ -24843,28 +24843,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>57.80188438090644</v>
+        <v>76.4731209850444</v>
       </c>
       <c r="AB5" t="n">
-        <v>79.08708824909388</v>
+        <v>104.6338978876866</v>
       </c>
       <c r="AC5" t="n">
-        <v>71.53912754604416</v>
+        <v>94.64778552791023</v>
       </c>
       <c r="AD5" t="n">
-        <v>57801.88438090643</v>
+        <v>76473.1209850444</v>
       </c>
       <c r="AE5" t="n">
-        <v>79087.08824909388</v>
+        <v>104633.8978876866</v>
       </c>
       <c r="AF5" t="n">
-        <v>5.133203365604846e-06</v>
+        <v>9.457580890095858e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.418402777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>71539.12754604415</v>
+        <v>94647.78552791024</v>
       </c>
     </row>
   </sheetData>
@@ -25140,28 +25140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.37930572359394</v>
+        <v>105.3500062457085</v>
       </c>
       <c r="AB2" t="n">
-        <v>104.5055357081329</v>
+        <v>144.1445262595736</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.53167405461565</v>
+        <v>130.3875749815121</v>
       </c>
       <c r="AD2" t="n">
-        <v>76379.30572359395</v>
+        <v>105350.0062457085</v>
       </c>
       <c r="AE2" t="n">
-        <v>104505.5357081329</v>
+        <v>144144.5262595736</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.091260421048175e-06</v>
+        <v>7.308738169051654e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.338541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>94531.67405461565</v>
+        <v>130387.5749815121</v>
       </c>
     </row>
     <row r="3">
@@ -25246,28 +25246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>63.24297229066794</v>
+        <v>92.29892415880305</v>
       </c>
       <c r="AB3" t="n">
-        <v>86.53182477108297</v>
+        <v>126.2874599751729</v>
       </c>
       <c r="AC3" t="n">
-        <v>78.27334886313029</v>
+        <v>114.234762040739</v>
       </c>
       <c r="AD3" t="n">
-        <v>63242.97229066794</v>
+        <v>92298.92415880304</v>
       </c>
       <c r="AE3" t="n">
-        <v>86531.82477108296</v>
+        <v>126287.4599751729</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.567280299228518e-06</v>
+        <v>8.159112942308608e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>5</v>
+        <v>4.782986111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>78273.34886313029</v>
+        <v>114234.762040739</v>
       </c>
     </row>
     <row r="4">
@@ -25352,28 +25352,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>61.93203510465657</v>
+        <v>81.44490444103268</v>
       </c>
       <c r="AB4" t="n">
-        <v>84.7381426787162</v>
+        <v>111.4365113517722</v>
       </c>
       <c r="AC4" t="n">
-        <v>76.65085327220983</v>
+        <v>100.8011671105136</v>
       </c>
       <c r="AD4" t="n">
-        <v>61932.03510465657</v>
+        <v>81444.90444103268</v>
       </c>
       <c r="AE4" t="n">
-        <v>84738.14267871621</v>
+        <v>111436.5113517722</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.730464833908847e-06</v>
+        <v>8.450630204588259e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>5</v>
+        <v>4.618055555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>76650.85327220983</v>
+        <v>100801.1671105136</v>
       </c>
     </row>
     <row r="5">
@@ -25458,28 +25458,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>61.05877565664945</v>
+        <v>80.57164499302556</v>
       </c>
       <c r="AB5" t="n">
-        <v>83.54331057646561</v>
+        <v>110.2416792495216</v>
       </c>
       <c r="AC5" t="n">
-        <v>75.57005426884027</v>
+        <v>99.72036810714405</v>
       </c>
       <c r="AD5" t="n">
-        <v>61058.77565664945</v>
+        <v>80571.64499302556</v>
       </c>
       <c r="AE5" t="n">
-        <v>83543.31057646562</v>
+        <v>110241.6792495216</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.820119478829565e-06</v>
+        <v>8.61079168489729e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>4.53125</v>
       </c>
       <c r="AH5" t="n">
-        <v>75570.05426884026</v>
+        <v>99720.36810714405</v>
       </c>
     </row>
     <row r="6">
@@ -25564,28 +25564,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>60.70007562140887</v>
+        <v>80.04235275719279</v>
       </c>
       <c r="AB6" t="n">
-        <v>83.052521363521</v>
+        <v>109.5174782617301</v>
       </c>
       <c r="AC6" t="n">
-        <v>75.12610528955194</v>
+        <v>99.0652838452047</v>
       </c>
       <c r="AD6" t="n">
-        <v>60700.07562140887</v>
+        <v>80042.35275719278</v>
       </c>
       <c r="AE6" t="n">
-        <v>83052.52136352099</v>
+        <v>109517.4782617301</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.857852915244009e-06</v>
+        <v>8.678199715330384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4.496527777777778</v>
       </c>
       <c r="AH6" t="n">
-        <v>75126.10528955194</v>
+        <v>99065.2838452047</v>
       </c>
     </row>
   </sheetData>
